--- a/connectathons/Boston2013/Connectathon.xlsx
+++ b/connectathons/Boston2013/Connectathon.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15870" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Waiting List" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Boban Jose</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>client scenarios</t>
+  </si>
+  <si>
+    <t>Andy Stechishin</t>
+  </si>
+  <si>
+    <t>Youcentric</t>
+  </si>
+  <si>
+    <t>andy.stechishin@gmail.com</t>
+  </si>
+  <si>
+    <t>Sunday only</t>
   </si>
 </sst>
 </file>
@@ -178,6 +190,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -503,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G14"/>
+  <dimension ref="B4:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="16">
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -533,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -547,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -555,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -566,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -574,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -582,17 +599,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16">
+    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -603,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -612,6 +629,20 @@
       </c>
       <c r="G14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -620,6 +651,7 @@
     <hyperlink ref="E8" r:id="rId2"/>
     <hyperlink ref="E13" r:id="rId3"/>
     <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/connectathons/Boston2013/Connectathon.xlsx
+++ b/connectathons/Boston2013/Connectathon.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15870" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Waiting List" sheetId="1" r:id="rId1"/>
+    <sheet name="Registrations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Boban Jose</t>
   </si>
@@ -106,13 +107,172 @@
   </si>
   <si>
     <t>Sunday only</t>
+  </si>
+  <si>
+    <t>Bender, Duane</t>
+  </si>
+  <si>
+    <t>Mohawk College</t>
+  </si>
+  <si>
+    <t>Boone, Keith W</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>Cheng, Thanh</t>
+  </si>
+  <si>
+    <t>Coolidge, Mat</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Foundation</t>
+  </si>
+  <si>
+    <t>DeCouteau, Duane</t>
+  </si>
+  <si>
+    <t>Edmond Scientific Company</t>
+  </si>
+  <si>
+    <t>Ekaireb, Michael</t>
+  </si>
+  <si>
+    <t>Enriquez, Sergio E</t>
+  </si>
+  <si>
+    <t>West Health Institute</t>
+  </si>
+  <si>
+    <t>Ettema, Richard</t>
+  </si>
+  <si>
+    <t>Aegis.net</t>
+  </si>
+  <si>
+    <t>Fallas, David</t>
+  </si>
+  <si>
+    <t>HL7 New Zealand Voter #2</t>
+  </si>
+  <si>
+    <t>Fyfe, Justin</t>
+  </si>
+  <si>
+    <t>Gilbertson, Lynne</t>
+  </si>
+  <si>
+    <t>NCPDP</t>
+  </si>
+  <si>
+    <t>Grieve, Grahame</t>
+  </si>
+  <si>
+    <t>Health Intersections Pty Ltd</t>
+  </si>
+  <si>
+    <t>Hay, David</t>
+  </si>
+  <si>
+    <t>HL7 New Zealand</t>
+  </si>
+  <si>
+    <t>Henderson, Mike</t>
+  </si>
+  <si>
+    <t>Eastern Informatics, Inc.</t>
+  </si>
+  <si>
+    <t>Knapp, Paul</t>
+  </si>
+  <si>
+    <t>Knapp Consulting Inc.</t>
+  </si>
+  <si>
+    <t>Kramer, Ewout</t>
+  </si>
+  <si>
+    <t>Furore</t>
+  </si>
+  <si>
+    <t>Kramer, Mark</t>
+  </si>
+  <si>
+    <t>Mandel, Joshua</t>
+  </si>
+  <si>
+    <t>Moehrke, John</t>
+  </si>
+  <si>
+    <t>Mulders, Rob</t>
+  </si>
+  <si>
+    <t>Furore B.V. and Stichting HL7 Netherlands</t>
+  </si>
+  <si>
+    <t>Nanjo, Claude</t>
+  </si>
+  <si>
+    <t>Zynx Health</t>
+  </si>
+  <si>
+    <t>Rhoads, John G</t>
+  </si>
+  <si>
+    <t>Philips Healthcare</t>
+  </si>
+  <si>
+    <t>Robbins, Jeffery</t>
+  </si>
+  <si>
+    <t>Dynamic Health IT, Inc.</t>
+  </si>
+  <si>
+    <t>Rodriguez, Dennis</t>
+  </si>
+  <si>
+    <t>YouCentric</t>
+  </si>
+  <si>
+    <t>Scheller, Brian</t>
+  </si>
+  <si>
+    <t>Healthwise, Inc.</t>
+  </si>
+  <si>
+    <t>Shaver, Dave</t>
+  </si>
+  <si>
+    <t>Corepoint Health</t>
+  </si>
+  <si>
+    <t>Sippel, Adam</t>
+  </si>
+  <si>
+    <t>Smithies, Rik</t>
+  </si>
+  <si>
+    <t>NProgram Ltd</t>
+  </si>
+  <si>
+    <t>Spronk, Rene</t>
+  </si>
+  <si>
+    <t>HL7 Netherlands</t>
+  </si>
+  <si>
+    <t>St Clair, Tom</t>
+  </si>
+  <si>
+    <t>Healthwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,13 +314,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,19 +359,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -522,16 +723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16.5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -550,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -564,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -572,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -583,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -591,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -599,17 +800,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="16.5">
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16.5">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -620,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -631,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -654,6 +855,312 @@
     <hyperlink ref="E15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="23.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="21">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="21">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="21">
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="21">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="21">
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="L8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="21">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="21">
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="21">
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="21">
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="21">
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="2:12" ht="21">
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="21">
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="21">
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="21">
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="21">
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="21">
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="21">
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="21">
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="21">
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="21">
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="21">
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="21">
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="21">
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="21">
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="21">
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="21">
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="21">
+      <c r="B30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="21">
+      <c r="B31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="21">
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
